--- a/raw_data/scenario_headers.xlsx
+++ b/raw_data/scenario_headers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26120" yWindow="0" windowWidth="22560" windowHeight="28340" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="26120" yWindow="0" windowWidth="22560" windowHeight="28340" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t># Annual target area of specific management within land types (or annual amount of area change for a land type), by land type and ownership class</t>
   </si>
   <si>
-    <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the % of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
-  </si>
-  <si>
     <t># private non-cut treatments are a combination of state CFIP and WMP projects from the calfire vtp eir 2016 (14142.97 ha; 5.3-1, 2004-2013; targets add to this portion only), and federal projects (13784.66 ha, doesn't change; total annual average of 27927.63 ha reported by Jason Ko 2008-2015)</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t># water, ice, barren, sparse, desert,grassland, meadow, marshes, cultivated, and seagrass are assumed to have no mortality fraction because they do not have veg c accumulation in the carbon input file (mortality and transfer to soil is implicit in the soil c accumulation representing net c exchange)</t>
+  </si>
+  <si>
+    <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the fraction of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
   </si>
 </sst>
 </file>
@@ -5078,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5114,32 +5114,32 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6129,7 +6129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6179,12 +6179,12 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/raw_data/scenario_headers.xlsx
+++ b/raw_data/scenario_headers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26120" yWindow="0" windowWidth="22560" windowHeight="28340" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="17420" yWindow="0" windowWidth="30400" windowHeight="27620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t># Units: Hectares</t>
   </si>
@@ -151,7 +151,10 @@
     <t># water, ice, barren, sparse, desert,grassland, meadow, marshes, cultivated, and seagrass are assumed to have no mortality fraction because they do not have veg c accumulation in the carbon input file (mortality and transfer to soil is implicit in the soil c accumulation representing net c exchange)</t>
   </si>
   <si>
-    <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the fraction of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
+    <t># developed_all mortality is transferred to harvest because it is highly managed; this allows for more control over the emissions pathway of this mortality</t>
+  </si>
+  <si>
+    <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the fraction of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all area in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
   </si>
 </sst>
 </file>
@@ -5079,7 +5082,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6130,7 +6133,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6189,7 +6192,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/raw_data/scenario_headers.xlsx
+++ b/raw_data/scenario_headers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="0" windowWidth="30400" windowHeight="27620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="72780" yWindow="2720" windowWidth="26260" windowHeight="13260" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="annual_managed_area" sheetId="31" r:id="rId3"/>
     <sheet name="annual_wildfire_area" sheetId="32" r:id="rId4"/>
     <sheet name="annual_mortality" sheetId="34" r:id="rId5"/>
+    <sheet name="veg_climate_scalars" sheetId="36" r:id="rId6"/>
+    <sheet name="soil_climate_scalars" sheetId="35" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t># Units: Hectares</t>
   </si>
@@ -37,12 +39,6 @@
     <t># Seagrass estimated extent range is 4451-6070 ha (NOAA)</t>
   </si>
   <si>
-    <t># total annaul average 2000-2015 area proportionally distributed across 2010 forest, woodland, savanna, shrubland, grassland area within each ownership</t>
-  </si>
-  <si>
-    <t># mean = 243931.10; stddev = 151439.00</t>
-  </si>
-  <si>
     <t># Annual net area change</t>
   </si>
   <si>
@@ -50,12 +46,6 @@
   </si>
   <si>
     <t># The 2001-2010 change values have been annualized over the nine year period, by dividing by 9</t>
-  </si>
-  <si>
-    <t># These data are from the FRAP fire perimeter data set</t>
-  </si>
-  <si>
-    <t># so the wildfire areas will be distributed across forest, woodland, savanna, shrubland, and grassland proportionally each year, within each ownership class</t>
   </si>
   <si>
     <t># These change values will be applied each year after the carbon operations are completed, with adjustments to reflect lack of available area of existing types</t>
@@ -67,25 +57,13 @@
     <t># no NA values allowed</t>
   </si>
   <si>
-    <t># The initial year column is the historical baseline</t>
-  </si>
-  <si>
-    <t># Units: Hectares; na NA values allowed</t>
-  </si>
-  <si>
     <t># The value in the rightmost column will be applied to each subsequent year</t>
-  </si>
-  <si>
-    <t># Values will be linearly interpolated between years</t>
   </si>
   <si>
     <t># Add a year column as a target value for that year - any number of columns can be added, and use the same column label format, just change the year</t>
   </si>
   <si>
     <t># Annual burn area of wildfire, by land type and ownership class, 2010</t>
-  </si>
-  <si>
-    <t># Units: Hectares; no NA values allowed</t>
   </si>
   <si>
     <t># Units: Hectares; no NA values allowed- the sum of the land change needs to be zero</t>
@@ -156,6 +134,42 @@
   <si>
     <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the fraction of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all area in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
   </si>
+  <si>
+    <t># These data are from the CA fourth assessment</t>
+  </si>
+  <si>
+    <t># BAU: 2006-2015 annual trend in area for each region-ownership applied to initial burn area</t>
+  </si>
+  <si>
+    <t># Initial year 2010 fire area: 2006-2015 average for each region-ownership proportionally distributed across 2010 forest, woodland, savanna, shrubland, grassland area</t>
+  </si>
+  <si>
+    <t># so the wildfire areas will be distributed across forest, woodland, savanna, shrubland, and grassland proportionally each year, within each region-ownership class</t>
+  </si>
+  <si>
+    <t># Values will be linearly interpolated to fill in missing years</t>
+  </si>
+  <si>
+    <t># Proportion of high severity has a positive BAU trend that is applied annually</t>
+  </si>
+  <si>
+    <t># They are calculated from an independent ecosystem model for a given climate scenario</t>
+  </si>
+  <si>
+    <t># These values directly scale the net soil carbon accumulation rates</t>
+  </si>
+  <si>
+    <t># Soil climate scalars</t>
+  </si>
+  <si>
+    <t># Vegetation climate scalars</t>
+  </si>
+  <si>
+    <t># These values directly scale the net vegetation carbon accumulation rates</t>
+  </si>
+  <si>
+    <t># Units: Hectares; no NA values allowed</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +234,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="934">
+  <cellStyleXfs count="938">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1157,6 +1171,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1165,7 +1183,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="933" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="934">
+  <cellStyles count="938">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1632,6 +1650,8 @@
     <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2098,6 +2118,8 @@
     <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="936" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.String" xfId="933"/>
   </cellStyles>
@@ -2455,22 +2477,22 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2480,7 +2502,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2914,37 +2936,37 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -5082,7 +5104,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5097,52 +5119,52 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5796,7 +5818,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A10" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5812,52 +5834,52 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6147,52 +6169,52 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6725,4 +6747,145 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/raw_data/scenario_headers.xlsx
+++ b/raw_data/scenario_headers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="72780" yWindow="2720" windowWidth="26260" windowHeight="13260" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t># private non-cut treatments are a combination of state CFIP and WMP projects from the calfire vtp eir 2016 (14142.97 ha; 5.3-1, 2004-2013; targets add to this portion only), and federal projects (13784.66 ha, doesn't change; total annual average of 27927.63 ha reported by Jason Ko 2008-2015)</t>
   </si>
   <si>
-    <t># private total fuel reduction area is split among fuel_reductions (30%), understory_treatment (20%), and prescribed_burn (50%) based on the calfire vtp eir 2016 (2-38) for the state projects; the federal projects all go to fuel_reduction and are constant across scenarios</t>
-  </si>
-  <si>
     <t># USFS area, and private fuel reduction thinning area, from 2008-2015 averages, from Jason Ko; 2000-2015 avg annual prescribed burn area from the FRAP fire perimeter data has been subtracted from the USFS fuel reduction thinning because it is a fuel reduction activity</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t># Units: Hectares; no NA values allowed</t>
+  </si>
+  <si>
+    <t># private total Thinning area is split among Thinnings (30%), understory_treatment (20%), and prescribed_burn (50%) based on the calfire vtp eir 2016 (2-38) for the state projects; the federal projects all go to Thinning and are constant across scenarios</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2453,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2919,7 +2919,7 @@
   <dimension ref="A1:AP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F59"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5104,7 +5104,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5139,12 +5139,12 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5154,17 +5154,17 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5818,7 +5818,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A3:A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5844,27 +5844,27 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5879,7 +5879,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6155,7 +6155,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6204,17 +6204,17 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6754,14 +6754,14 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6771,12 +6771,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6825,14 +6825,14 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6842,12 +6842,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/raw_data/scenario_headers.xlsx
+++ b/raw_data/scenario_headers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="46940" windowHeight="19200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -105,13 +105,7 @@
     <t># Annual target area of specific management within land types (or annual amount of area change for a land type), by land type and ownership class</t>
   </si>
   <si>
-    <t># private non-cut treatments are a combination of state CFIP and WMP projects from the calfire vtp eir 2016 (14142.97 ha; 5.3-1, 2004-2013; targets add to this portion only), and federal projects (13784.66 ha, doesn't change; total annual average of 27927.63 ha reported by Jason Ko 2008-2015)</t>
-  </si>
-  <si>
     <t># USFS area, and private fuel reduction thinning area, from 2008-2015 averages, from Jason Ko; 2000-2015 avg annual prescribed burn area from the FRAP fire perimeter data has been subtracted from the USFS fuel reduction thinning because it is a fuel reduction activity</t>
-  </si>
-  <si>
-    <t># Private clearcut and partial cut area data from Robards and Nickerson 2013; grouped based on the treatments to match stewart and nakamura 2012</t>
   </si>
   <si>
     <t># fresh marsh baseline to 2020 is ecorestore target (1416.40 ha) is split between private and state_gov proportinoally to 2010 area of cultivated land (the source)in the Delta region</t>
@@ -168,7 +162,13 @@
     <t># Units: Hectares; no NA values allowed</t>
   </si>
   <si>
-    <t># private total Thinning area is split among Thinnings (30%), understory_treatment (20%), and prescribed_burn (50%) based on the calfire vtp eir 2016 (2-38) for the state projects; the federal projects all go to Thinning and are constant across scenarios</t>
+    <t># private total fuel reduction area is split among Thinnings (30%), understory_treatment (20%), and prescribed_burn (50%) based on the calfire vtp eir 2016 (2-38) for the state projects; the federal projects all go to Thinning and are constant across scenarios</t>
+  </si>
+  <si>
+    <t># Private clearcut and partial cut area data from Robards and Nickerson 2013; grouped based on the treatments to match stewart and nakamura 2012; regionalized based on 2010 CALAND private forest area</t>
+  </si>
+  <si>
+    <t># private non-clearcut and non-partial-cut treatments are a combination of state CFIP and WMP projects from the calfire vtp eir 2016 (14142.97 ha; 5.3-1, 2004-2013; targets add to this portion only), and federal projects (13784.66 ha, doesn't change; total annual average of 27927.63 ha reported by Jason Ko 2008-2015)</t>
   </si>
 </sst>
 </file>
@@ -5104,7 +5104,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5139,32 +5139,32 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
+      <c r="A10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5844,27 +5844,27 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5879,7 +5879,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6179,7 +6179,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6204,17 +6204,17 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6761,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6771,12 +6771,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6832,7 +6832,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6842,12 +6842,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/raw_data/scenario_headers.xlsx
+++ b/raw_data/scenario_headers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="46940" windowHeight="19200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="59720" yWindow="6680" windowWidth="32000" windowHeight="21600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t># developed_all mortality is transferred to harvest because it is highly managed; this allows for more control over the emissions pathway of this mortality</t>
   </si>
   <si>
-    <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the fraction of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all area in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
-  </si>
-  <si>
     <t># These data are from the CA fourth assessment</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t># private non-clearcut and non-partial-cut treatments are a combination of state CFIP and WMP projects from the calfire vtp eir 2016 (14142.97 ha; 5.3-1, 2004-2013; targets add to this portion only), and federal projects (13784.66 ha, doesn't change; total annual average of 27927.63 ha reported by Jason Ko 2008-2015)</t>
+  </si>
+  <si>
+    <t># Developed growth in 2010 matches the historical change data; Developed urban forest is the % of developed all for that year, in 2010 this is 15% of Developed_all (this is the historical baseline) annual increases are prescribed in target scenarios; Dead_removal is applied to the total developed_all area because that is the area basis for the urban forest values</t>
   </si>
 </sst>
 </file>
@@ -5104,7 +5104,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5139,7 +5139,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5149,12 +5149,12 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5164,7 +5164,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5844,27 +5844,27 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5879,7 +5879,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6761,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6771,12 +6771,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6832,7 +6832,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6842,12 +6842,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
